--- a/production_recipe_management_tool_v1.1/data/Recipes/2150_pieces_Chicken Premium Momo 25 Gm.xlsx
+++ b/production_recipe_management_tool_v1.1/data/Recipes/2150_pieces_Chicken Premium Momo 25 Gm.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Deborshi\Desktop\Recipe_Builder_Project_v.2.1.0\recipe_scaler\Recipes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Deborshi\Documents\GitHub\production_recipe_management_tool\production_recipe_management_tool_v1.1\data\Recipes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6AEBC86-6F6E-477E-A324-C0A425B1043A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E4DF646-45E6-4EA3-B770-CA3B0D01534C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -657,7 +657,7 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.36328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -954,11 +954,11 @@
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="E17" s="2">
         <f t="shared" si="0"/>
-        <v>1750</v>
+        <v>1400</v>
       </c>
       <c r="F17" s="2"/>
     </row>
@@ -971,11 +971,11 @@
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2">
-        <v>0.12</v>
+        <v>0.1</v>
       </c>
       <c r="E18" s="2">
         <f t="shared" si="0"/>
-        <v>960</v>
+        <v>800</v>
       </c>
       <c r="F18" s="2"/>
     </row>
